--- a/QUANGHANH2/excel/CDVT/download/tieu-hao-vat-tu-tong-hop.xlsx
+++ b/QUANGHANH2/excel/CDVT/download/tieu-hao-vat-tu-tong-hop.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\win\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\win\Documents\GitHub\QUANGHANH-PROTOTYPE\QUANGHANH2\excel\CDVT\download\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Mã vật tư</t>
   </si>
@@ -38,10 +38,13 @@
     <t>Đơn vị</t>
   </si>
   <si>
-    <t>Sử dụng</t>
-  </si>
-  <si>
     <t>Thu hồi</t>
+  </si>
+  <si>
+    <t>Số lượng thực lĩnh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sử dụng </t>
   </si>
 </sst>
 </file>
@@ -371,7 +374,7 @@
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -379,7 +382,7 @@
     <col min="1" max="1" width="19.3984375" customWidth="1"/>
     <col min="2" max="2" width="28.53125" customWidth="1"/>
     <col min="3" max="3" width="20.796875" customWidth="1"/>
-    <col min="4" max="4" width="17.1328125" customWidth="1"/>
+    <col min="4" max="4" width="21.46484375" customWidth="1"/>
     <col min="5" max="5" width="14.06640625" customWidth="1"/>
     <col min="6" max="6" width="14.3984375" customWidth="1"/>
   </cols>
@@ -395,15 +398,17 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
